--- a/קרנות_השתלמות_חשיפות.xlsx
+++ b/קרנות_השתלמות_חשיפות.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amir.k\Desktop\תכנון פיננסי\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amir.k\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D0952A0E-1C5A-4BBE-9D57-32DDC0484358}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7895EFA0-DC4E-44EF-8DD4-FA2233160C41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="קרנות השתלמות מובילות באפיק כלל" sheetId="1" r:id="rId1"/>
@@ -32,9 +32,8 @@
     <sheet name="קרן השתלמות - קיימות" sheetId="17" r:id="rId17"/>
     <sheet name="קרן השתלמות - עוקב מדדי אג&quot;ח" sheetId="18" r:id="rId18"/>
     <sheet name="קרן השתלמות - מסלול אג&quot;ח סחיר ע" sheetId="19" r:id="rId19"/>
-    <sheet name="קרן השתלמות - מסלול בניהול אישי" sheetId="20" r:id="rId20"/>
-    <sheet name="קרן השתלמות כללי - אגרסיבי" sheetId="21" r:id="rId21"/>
-    <sheet name="קרן השתלמות - שריעה" sheetId="22" r:id="rId22"/>
+    <sheet name="קרן השתלמות כללי - אגרסיבי" sheetId="21" r:id="rId20"/>
+    <sheet name="קרן השתלמות - שריעה" sheetId="22" r:id="rId21"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -57,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1071" uniqueCount="808">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="757">
   <si>
     <t>פרמטר</t>
   </si>
@@ -443,36 +442,6 @@
     <t>0.69%</t>
   </si>
   <si>
-    <t>55.14%</t>
-  </si>
-  <si>
-    <t>53.83%</t>
-  </si>
-  <si>
-    <t>49.97%</t>
-  </si>
-  <si>
-    <t>58.83%</t>
-  </si>
-  <si>
-    <t>68.49%</t>
-  </si>
-  <si>
-    <t>84.13%</t>
-  </si>
-  <si>
-    <t>61.51%</t>
-  </si>
-  <si>
-    <t>82.07%</t>
-  </si>
-  <si>
-    <t>83.03%</t>
-  </si>
-  <si>
-    <t>51.44%</t>
-  </si>
-  <si>
     <t>71.17%</t>
   </si>
   <si>
@@ -2325,129 +2294,6 @@
   </si>
   <si>
     <t>13.06%</t>
-  </si>
-  <si>
-    <t>אקטיון השתלמות  IRA</t>
-  </si>
-  <si>
-    <t>מיטב השתלמות בניהול אישי</t>
-  </si>
-  <si>
-    <t>סלייס השתלמות בניהול אישי</t>
-  </si>
-  <si>
-    <t>גלובל נט השתלמות IRA</t>
-  </si>
-  <si>
-    <t>הפניקס השתלמות בניהול אישי</t>
-  </si>
-  <si>
-    <t>גלובל נט השתלמות בניהול אישי</t>
-  </si>
-  <si>
-    <t>מגדל השתלמות בניהול אישי IRA</t>
-  </si>
-  <si>
-    <t>71.28%</t>
-  </si>
-  <si>
-    <t>47.09%</t>
-  </si>
-  <si>
-    <t>73.08%</t>
-  </si>
-  <si>
-    <t>51.68%</t>
-  </si>
-  <si>
-    <t>58.27%</t>
-  </si>
-  <si>
-    <t>77.75%</t>
-  </si>
-  <si>
-    <t>70.22%</t>
-  </si>
-  <si>
-    <t>37.05%</t>
-  </si>
-  <si>
-    <t>66.20%</t>
-  </si>
-  <si>
-    <t>59.70%</t>
-  </si>
-  <si>
-    <t>65.51%</t>
-  </si>
-  <si>
-    <t>56.85%</t>
-  </si>
-  <si>
-    <t>76.00%</t>
-  </si>
-  <si>
-    <t>-6.64</t>
-  </si>
-  <si>
-    <t>-0.72</t>
-  </si>
-  <si>
-    <t>23.37%</t>
-  </si>
-  <si>
-    <t>0.48%</t>
-  </si>
-  <si>
-    <t>39.63%</t>
-  </si>
-  <si>
-    <t>12.30%</t>
-  </si>
-  <si>
-    <t>3.70%</t>
-  </si>
-  <si>
-    <t>82.44%</t>
-  </si>
-  <si>
-    <t>66.23%</t>
-  </si>
-  <si>
-    <t>33.29%</t>
-  </si>
-  <si>
-    <t>55.01%</t>
-  </si>
-  <si>
-    <t>39.34%</t>
-  </si>
-  <si>
-    <t>60.81%</t>
-  </si>
-  <si>
-    <t>36.62%</t>
-  </si>
-  <si>
-    <t>71.00%</t>
-  </si>
-  <si>
-    <t>40.96%</t>
-  </si>
-  <si>
-    <t>66.97%</t>
-  </si>
-  <si>
-    <t>61.47%</t>
-  </si>
-  <si>
-    <t>58.66%</t>
-  </si>
-  <si>
-    <t>58.73%</t>
-  </si>
-  <si>
-    <t>76.50%</t>
   </si>
   <si>
     <t>אלטשולר שחם השתלמות כללי ב'</t>
@@ -2777,8 +2623,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K1000"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView rightToLeft="1" zoomScale="58" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4072,31 +3918,31 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>542</v>
+        <v>532</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>543</v>
+        <v>533</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>544</v>
+        <v>534</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>545</v>
+        <v>535</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>546</v>
+        <v>536</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>547</v>
+        <v>537</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>548</v>
+        <v>538</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>549</v>
+        <v>539</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>550</v>
+        <v>540</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
@@ -4104,31 +3950,31 @@
         <v>11</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
@@ -4136,31 +3982,31 @@
         <v>22</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
@@ -4171,25 +4017,25 @@
         <v>39</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>551</v>
+        <v>541</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>552</v>
+        <v>542</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>554</v>
+        <v>544</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>555</v>
+        <v>545</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
@@ -4197,31 +4043,31 @@
         <v>42</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>557</v>
+        <v>547</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>558</v>
+        <v>548</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>559</v>
+        <v>549</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>560</v>
+        <v>550</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>561</v>
+        <v>551</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>562</v>
+        <v>552</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>563</v>
+        <v>553</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
@@ -4229,31 +4075,31 @@
         <v>53</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>564</v>
+        <v>554</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>565</v>
+        <v>555</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
@@ -4261,7 +4107,7 @@
         <v>64</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>566</v>
+        <v>556</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -5266,28 +5112,28 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>567</v>
+        <v>557</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>568</v>
+        <v>558</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>569</v>
+        <v>559</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>570</v>
+        <v>560</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>571</v>
+        <v>561</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>572</v>
+        <v>562</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>573</v>
+        <v>563</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>574</v>
+        <v>564</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
@@ -5295,28 +5141,28 @@
         <v>11</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>575</v>
+        <v>565</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>576</v>
+        <v>566</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>577</v>
+        <v>567</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>578</v>
+        <v>568</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>579</v>
+        <v>569</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>580</v>
+        <v>570</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>581</v>
+        <v>571</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
@@ -5324,28 +5170,28 @@
         <v>22</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>582</v>
+        <v>572</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>583</v>
+        <v>573</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>584</v>
+        <v>574</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>585</v>
+        <v>575</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>586</v>
+        <v>576</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>587</v>
+        <v>577</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
@@ -5353,7 +5199,7 @@
         <v>33</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
@@ -5361,28 +5207,28 @@
         <v>42</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>588</v>
+        <v>578</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>588</v>
+        <v>578</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>589</v>
+        <v>579</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>519</v>
+        <v>509</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>590</v>
+        <v>580</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>591</v>
+        <v>581</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>592</v>
+        <v>582</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>593</v>
+        <v>583</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
@@ -5390,28 +5236,28 @@
         <v>53</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>594</v>
+        <v>584</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>595</v>
+        <v>585</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>596</v>
+        <v>586</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>597</v>
+        <v>587</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>598</v>
+        <v>588</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>599</v>
+        <v>589</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>601</v>
+        <v>591</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
@@ -5419,28 +5265,28 @@
         <v>64</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>602</v>
+        <v>592</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>603</v>
+        <v>593</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>604</v>
+        <v>594</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>605</v>
+        <v>595</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>606</v>
+        <v>596</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>607</v>
+        <v>597</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -6445,7 +6291,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>608</v>
+        <v>598</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
@@ -6453,7 +6299,7 @@
         <v>11</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>609</v>
+        <v>599</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
@@ -6461,7 +6307,7 @@
         <v>22</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>610</v>
+        <v>600</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
@@ -6477,7 +6323,7 @@
         <v>42</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>611</v>
+        <v>601</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
@@ -6485,7 +6331,7 @@
         <v>53</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>612</v>
+        <v>602</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
@@ -6493,7 +6339,7 @@
         <v>64</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>613</v>
+        <v>603</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -7498,16 +7344,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>614</v>
+        <v>604</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>615</v>
+        <v>605</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>616</v>
+        <v>606</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>617</v>
+        <v>607</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
@@ -7515,16 +7361,16 @@
         <v>11</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>618</v>
+        <v>608</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>619</v>
+        <v>609</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>620</v>
+        <v>610</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>621</v>
+        <v>611</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
@@ -7532,16 +7378,16 @@
         <v>22</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>622</v>
+        <v>612</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>624</v>
+        <v>614</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
@@ -7549,7 +7395,7 @@
         <v>33</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>625</v>
+        <v>615</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
@@ -7557,13 +7403,13 @@
         <v>42</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>626</v>
+        <v>616</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>627</v>
+        <v>617</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
@@ -7571,16 +7417,16 @@
         <v>53</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>628</v>
+        <v>618</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>629</v>
+        <v>619</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>630</v>
+        <v>620</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>631</v>
+        <v>621</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
@@ -7588,16 +7434,16 @@
         <v>64</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>633</v>
+        <v>623</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>634</v>
+        <v>624</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>635</v>
+        <v>625</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -8602,34 +8448,34 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>636</v>
+        <v>626</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>637</v>
+        <v>627</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>638</v>
+        <v>628</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>639</v>
+        <v>629</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>640</v>
+        <v>630</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>641</v>
+        <v>631</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>642</v>
+        <v>632</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>643</v>
+        <v>633</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>644</v>
+        <v>634</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>645</v>
+        <v>635</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
@@ -8637,34 +8483,34 @@
         <v>11</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>646</v>
+        <v>636</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>647</v>
+        <v>637</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>648</v>
+        <v>638</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>650</v>
+        <v>640</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>651</v>
+        <v>641</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>652</v>
+        <v>642</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>653</v>
+        <v>643</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>654</v>
+        <v>644</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
@@ -8672,34 +8518,34 @@
         <v>22</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>465</v>
+        <v>455</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>655</v>
+        <v>645</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>656</v>
+        <v>646</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>657</v>
+        <v>647</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>658</v>
+        <v>648</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>659</v>
+        <v>649</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>660</v>
+        <v>650</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>661</v>
+        <v>651</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>654</v>
+        <v>644</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
@@ -8712,34 +8558,34 @@
         <v>42</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>662</v>
+        <v>652</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>663</v>
+        <v>653</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>664</v>
+        <v>654</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>665</v>
+        <v>655</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>666</v>
+        <v>656</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
@@ -8747,34 +8593,34 @@
         <v>53</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>667</v>
+        <v>657</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>668</v>
+        <v>658</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>669</v>
+        <v>659</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>670</v>
+        <v>660</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>671</v>
+        <v>661</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>672</v>
+        <v>662</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>673</v>
+        <v>663</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>674</v>
+        <v>664</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>675</v>
+        <v>665</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
@@ -8782,34 +8628,34 @@
         <v>64</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>676</v>
+        <v>666</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>677</v>
+        <v>667</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>678</v>
+        <v>668</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>679</v>
+        <v>669</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>680</v>
+        <v>670</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>681</v>
+        <v>671</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>682</v>
+        <v>672</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>634</v>
+        <v>624</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>683</v>
+        <v>673</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>684</v>
+        <v>674</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -9814,19 +9660,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>685</v>
+        <v>675</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>686</v>
+        <v>676</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>687</v>
+        <v>677</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>688</v>
+        <v>678</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>689</v>
+        <v>679</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
@@ -9834,19 +9680,19 @@
         <v>11</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>690</v>
+        <v>680</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
@@ -9854,19 +9700,19 @@
         <v>22</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>691</v>
+        <v>681</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>692</v>
+        <v>682</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>676</v>
+        <v>666</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>693</v>
+        <v>683</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
@@ -9879,19 +9725,19 @@
         <v>42</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>694</v>
+        <v>684</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>695</v>
+        <v>685</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>696</v>
+        <v>686</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>697</v>
+        <v>687</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>698</v>
+        <v>688</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
@@ -9899,19 +9745,19 @@
         <v>53</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>699</v>
+        <v>689</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>700</v>
+        <v>690</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>701</v>
+        <v>691</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>702</v>
+        <v>692</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
@@ -9919,19 +9765,19 @@
         <v>64</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>703</v>
+        <v>693</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>704</v>
+        <v>694</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>705</v>
+        <v>695</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>706</v>
+        <v>696</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>707</v>
+        <v>697</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -10936,10 +10782,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>708</v>
+        <v>698</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>709</v>
+        <v>699</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
@@ -10947,10 +10793,10 @@
         <v>11</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>710</v>
+        <v>700</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
@@ -10958,10 +10804,10 @@
         <v>22</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>711</v>
+        <v>701</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>712</v>
+        <v>702</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
@@ -10969,10 +10815,10 @@
         <v>33</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>713</v>
+        <v>703</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
@@ -10980,10 +10826,10 @@
         <v>42</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>714</v>
+        <v>704</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>715</v>
+        <v>705</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
@@ -10991,10 +10837,10 @@
         <v>53</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>716</v>
+        <v>706</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>717</v>
+        <v>707</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
@@ -11002,10 +10848,10 @@
         <v>64</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>718</v>
+        <v>708</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>719</v>
+        <v>709</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -12010,10 +11856,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>720</v>
+        <v>710</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>721</v>
+        <v>711</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
@@ -12021,10 +11867,10 @@
         <v>11</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>722</v>
+        <v>712</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
@@ -12032,10 +11878,10 @@
         <v>22</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>723</v>
+        <v>713</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
@@ -12048,10 +11894,10 @@
         <v>42</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>724</v>
+        <v>714</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
@@ -12059,10 +11905,10 @@
         <v>53</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>725</v>
+        <v>715</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
@@ -12070,10 +11916,10 @@
         <v>64</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>726</v>
+        <v>716</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>727</v>
+        <v>717</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -13078,13 +12924,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>728</v>
+        <v>718</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>729</v>
+        <v>719</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>730</v>
+        <v>720</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
@@ -13092,13 +12938,13 @@
         <v>11</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
@@ -13106,13 +12952,13 @@
         <v>22</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>731</v>
+        <v>721</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
@@ -13125,13 +12971,13 @@
         <v>42</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>733</v>
+        <v>723</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>734</v>
+        <v>724</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>735</v>
+        <v>725</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
@@ -13139,13 +12985,13 @@
         <v>53</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>736</v>
+        <v>726</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>737</v>
+        <v>727</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>738</v>
+        <v>728</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
@@ -13153,13 +12999,13 @@
         <v>64</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>739</v>
+        <v>729</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>740</v>
+        <v>730</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -14164,13 +14010,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>741</v>
+        <v>731</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>742</v>
+        <v>732</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>743</v>
+        <v>733</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
@@ -14178,13 +14024,13 @@
         <v>11</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>744</v>
+        <v>734</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>745</v>
+        <v>735</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
@@ -14192,13 +14038,13 @@
         <v>22</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>746</v>
+        <v>736</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>747</v>
+        <v>737</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
@@ -14211,13 +14057,13 @@
         <v>42</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>748</v>
+        <v>738</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>749</v>
+        <v>739</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
@@ -14225,13 +14071,13 @@
         <v>53</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>750</v>
+        <v>740</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>751</v>
+        <v>741</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>752</v>
+        <v>742</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
@@ -14239,13 +14085,13 @@
         <v>64</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>753</v>
+        <v>743</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>754</v>
+        <v>744</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>755</v>
+        <v>745</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -15239,7 +15085,7 @@
   <dimension ref="A1:L1000"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:B5"/>
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -15440,79 +15286,55 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>138</v>
-      </c>
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
     </row>
     <row r="7" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>64</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="L7" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -16502,193 +16324,70 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
-  <dimension ref="A1:H1000"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
+  <dimension ref="A1:B1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="B1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="26" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>756</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>757</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>758</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>759</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>760</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>761</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>763</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>764</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>445</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>765</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>766</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>767</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>22</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>769</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>770</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>771</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>772</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>773</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>774</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>776</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>776</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>777</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>776</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>776</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="B4" s="6" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
         <v>42</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>694</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>778</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>706</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>779</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>780</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>781</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
         <v>53</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>783</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>784</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>785</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>786</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>787</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>788</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>64</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>790</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>791</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>792</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>793</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>794</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>795</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>796</v>
+        <v>751</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -17678,1059 +17377,6 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
-  <dimension ref="A1:B1000"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="26" width="8.7265625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="24" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="25" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="27" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="28" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="29" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="31" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="32" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <dimension ref="A1:B1000"/>
   <sheetViews>
@@ -18746,7 +17392,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>803</v>
+        <v>752</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
@@ -18754,7 +17400,7 @@
         <v>11</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>804</v>
+        <v>753</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
@@ -18762,7 +17408,7 @@
         <v>22</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>805</v>
+        <v>754</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
@@ -18770,7 +17416,7 @@
         <v>33</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>806</v>
+        <v>755</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
@@ -18778,7 +17424,7 @@
         <v>42</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>665</v>
+        <v>655</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
@@ -18786,7 +17432,7 @@
         <v>53</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>807</v>
+        <v>756</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
@@ -18794,7 +17440,7 @@
         <v>64</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -19787,7 +18433,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K1000"/>
   <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0"/>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
@@ -19809,34 +18455,34 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
@@ -19844,34 +18490,34 @@
         <v>11</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
@@ -19879,34 +18525,34 @@
         <v>22</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>174</v>
-      </c>
       <c r="H3" s="2" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
@@ -19914,22 +18560,22 @@
         <v>33</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
@@ -19937,34 +18583,34 @@
         <v>42</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
@@ -19972,34 +18618,34 @@
         <v>53</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
@@ -20007,31 +18653,31 @@
         <v>64</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>87</v>
@@ -32976,28 +31622,28 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
@@ -33005,28 +31651,28 @@
         <v>11</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
@@ -33034,28 +31680,28 @@
         <v>22</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
@@ -33063,23 +31709,23 @@
         <v>33</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="4" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="I4" s="4"/>
     </row>
@@ -33088,28 +31734,28 @@
         <v>42</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
@@ -33117,28 +31763,28 @@
         <v>53</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
@@ -33146,28 +31792,28 @@
         <v>64</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -34185,34 +32831,34 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
@@ -34220,34 +32866,34 @@
         <v>11</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
@@ -34255,34 +32901,34 @@
         <v>22</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
@@ -34290,16 +32936,16 @@
         <v>33</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
@@ -34307,34 +32953,34 @@
         <v>42</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
@@ -34342,34 +32988,34 @@
         <v>53</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
@@ -34377,31 +33023,31 @@
         <v>64</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -35418,37 +34064,37 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="L1" s="5" t="s">
         <v>322</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>323</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>324</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>326</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>327</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>328</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>329</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>330</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>331</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
@@ -35456,37 +34102,37 @@
         <v>11</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
@@ -35494,37 +34140,37 @@
         <v>22</v>
       </c>
       <c r="B3" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="L3" s="6" t="s">
         <v>343</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>344</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>345</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>346</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>347</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>348</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>349</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>350</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>351</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>352</v>
-      </c>
-      <c r="L3" s="6" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
@@ -35532,31 +34178,31 @@
         <v>33</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
@@ -35564,37 +34210,37 @@
         <v>42</v>
       </c>
       <c r="B5" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="L5" s="6" t="s">
         <v>363</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>364</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>365</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>366</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>367</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>368</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>369</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>370</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>371</v>
-      </c>
-      <c r="K5" s="6" t="s">
-        <v>372</v>
-      </c>
-      <c r="L5" s="6" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
@@ -35602,37 +34248,37 @@
         <v>53</v>
       </c>
       <c r="B6" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="L6" s="6" t="s">
         <v>374</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>375</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>376</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>377</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>378</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>379</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>380</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>381</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>382</v>
-      </c>
-      <c r="K6" s="6" t="s">
-        <v>383</v>
-      </c>
-      <c r="L6" s="6" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
@@ -35640,37 +34286,37 @@
         <v>64</v>
       </c>
       <c r="B7" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="L7" s="6" t="s">
         <v>385</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>386</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>387</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>388</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>389</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>390</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>391</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>392</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>393</v>
-      </c>
-      <c r="K7" s="6" t="s">
-        <v>394</v>
-      </c>
-      <c r="L7" s="6" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -36675,22 +35321,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
@@ -36698,22 +35344,22 @@
         <v>11</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
@@ -36721,22 +35367,22 @@
         <v>22</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
@@ -36744,22 +35390,22 @@
         <v>33</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
@@ -36767,22 +35413,22 @@
         <v>42</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
@@ -36790,22 +35436,22 @@
         <v>53</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
@@ -36813,19 +35459,19 @@
         <v>64</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -37830,34 +36476,34 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
@@ -37865,34 +36511,34 @@
         <v>11</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
@@ -37900,34 +36546,34 @@
         <v>22</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>448</v>
+        <v>438</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>449</v>
+        <v>439</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>451</v>
+        <v>441</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
@@ -37935,13 +36581,13 @@
         <v>33</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>454</v>
+        <v>444</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
@@ -37949,34 +36595,34 @@
         <v>42</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>460</v>
+        <v>450</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>461</v>
+        <v>451</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>462</v>
+        <v>452</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
@@ -37984,34 +36630,34 @@
         <v>53</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>465</v>
+        <v>455</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>469</v>
+        <v>459</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>470</v>
+        <v>460</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>472</v>
+        <v>462</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
@@ -38019,34 +36665,34 @@
         <v>64</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>474</v>
+        <v>464</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>478</v>
+        <v>468</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>479</v>
+        <v>469</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>480</v>
+        <v>470</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>481</v>
+        <v>471</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>482</v>
+        <v>472</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -39051,31 +37697,31 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>483</v>
+        <v>473</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>485</v>
+        <v>475</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>486</v>
+        <v>476</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>487</v>
+        <v>477</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>488</v>
+        <v>478</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>489</v>
+        <v>479</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
@@ -39083,31 +37729,31 @@
         <v>11</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>492</v>
+        <v>482</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>493</v>
+        <v>483</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>494</v>
+        <v>484</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>495</v>
+        <v>485</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>496</v>
+        <v>486</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>498</v>
+        <v>488</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>499</v>
+        <v>489</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>500</v>
+        <v>490</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
@@ -39115,31 +37761,31 @@
         <v>22</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>501</v>
+        <v>491</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>502</v>
+        <v>492</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>506</v>
+        <v>496</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>507</v>
+        <v>497</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>508</v>
+        <v>498</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>509</v>
+        <v>499</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
@@ -39147,28 +37793,28 @@
         <v>33</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>510</v>
+        <v>500</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>511</v>
+        <v>501</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>512</v>
+        <v>502</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>513</v>
+        <v>503</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>510</v>
+        <v>500</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>514</v>
+        <v>504</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>515</v>
+        <v>505</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
@@ -39176,31 +37822,31 @@
         <v>42</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>516</v>
+        <v>506</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>517</v>
+        <v>507</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>518</v>
+        <v>508</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>519</v>
+        <v>509</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>521</v>
+        <v>511</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>522</v>
+        <v>512</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>523</v>
+        <v>513</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
@@ -39208,31 +37854,31 @@
         <v>53</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>524</v>
+        <v>514</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>525</v>
+        <v>515</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>526</v>
+        <v>516</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>527</v>
+        <v>517</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>528</v>
+        <v>518</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>529</v>
+        <v>519</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>531</v>
+        <v>521</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>532</v>
+        <v>522</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
@@ -39240,31 +37886,31 @@
         <v>64</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>533</v>
+        <v>523</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>535</v>
+        <v>525</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>537</v>
+        <v>527</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>538</v>
+        <v>528</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>539</v>
+        <v>529</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>540</v>
+        <v>530</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>541</v>
+        <v>531</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
